--- a/data/trans_orig/P14B28-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B28-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FAF7264-1B4D-49EC-99CD-8447B026636D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{85835A04-3430-4F72-AC7D-4B5EF260EE11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5F9EE32C-0E4D-417B-AA2D-03D7E6E9ED44}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D4389184-7E64-4710-BDA3-FB1745C7E7DE}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="465">
   <si>
     <t>Población cuya artritis le limita en 2012 (Tasa respuesta: 8,61%)</t>
   </si>
@@ -85,16 +85,16 @@
     <t>78,35%</t>
   </si>
   <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
   </si>
   <si>
     <t>97,83%</t>
   </si>
   <si>
-    <t>91,13%</t>
+    <t>89,16%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -103,19 +103,19 @@
     <t>93,39%</t>
   </si>
   <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
   </si>
   <si>
     <t>21,65%</t>
   </si>
   <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
   </si>
   <si>
     <t>2,17%</t>
@@ -124,16 +124,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>8,87%</t>
+    <t>10,84%</t>
   </si>
   <si>
     <t>6,61%</t>
   </si>
   <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
   </si>
   <si>
     <t>100%</t>
@@ -145,55 +145,55 @@
     <t>78,24%</t>
   </si>
   <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
   </si>
   <si>
     <t>90,61%</t>
   </si>
   <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
   </si>
   <si>
     <t>86,59%</t>
   </si>
   <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
   </si>
   <si>
     <t>21,76%</t>
   </si>
   <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
   </si>
   <si>
     <t>9,39%</t>
   </si>
   <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
   </si>
   <si>
     <t>13,41%</t>
   </si>
   <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -202,49 +202,49 @@
     <t>92,77%</t>
   </si>
   <si>
-    <t>77,55%</t>
+    <t>76,26%</t>
   </si>
   <si>
     <t>78,09%</t>
   </si>
   <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
   </si>
   <si>
     <t>82,5%</t>
   </si>
   <si>
-    <t>72,77%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
   </si>
   <si>
     <t>7,23%</t>
   </si>
   <si>
-    <t>22,45%</t>
+    <t>23,74%</t>
   </si>
   <si>
     <t>21,91%</t>
   </si>
   <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
   </si>
   <si>
     <t>17,5%</t>
   </si>
   <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -253,49 +253,49 @@
     <t>89,77%</t>
   </si>
   <si>
-    <t>47,91%</t>
+    <t>56,62%</t>
   </si>
   <si>
     <t>85,71%</t>
   </si>
   <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
   </si>
   <si>
     <t>86,7%</t>
   </si>
   <si>
-    <t>71,44%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
   </si>
   <si>
     <t>10,23%</t>
   </si>
   <si>
-    <t>52,09%</t>
+    <t>43,38%</t>
   </si>
   <si>
     <t>14,29%</t>
   </si>
   <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
   </si>
   <si>
     <t>13,3%</t>
   </si>
   <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -304,1141 +304,1135 @@
     <t>83,38%</t>
   </si>
   <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuya artritis le limita en 2015 (Tasa respuesta: 6,27%)</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>70,26%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>60,35%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>Población cuya artritis le limita en 2023 (Tasa respuesta: 13,68%)</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
     <t>66,53%</t>
   </si>
   <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
   </si>
   <si>
     <t>33,47%</t>
   </si>
   <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>69,02%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuya artritis le limita en 2015 (Tasa respuesta: 6,27%)</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>59,68%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>62,25%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>Población cuya artritis le limita en 2023 (Tasa respuesta: 13,68%)</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>50,15%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
     <t>25,85%</t>
   </si>
   <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
   </si>
   <si>
     <t>91,73%</t>
   </si>
   <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
   </si>
   <si>
     <t>78,87%</t>
   </si>
   <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
   </si>
   <si>
     <t>82,03%</t>
   </si>
   <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
   </si>
   <si>
     <t>8,27%</t>
   </si>
   <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
   </si>
   <si>
     <t>21,13%</t>
   </si>
   <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
   </si>
   <si>
     <t>17,97%</t>
   </si>
   <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
   </si>
   <si>
     <t>65,38%</t>
   </si>
   <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
     <t>59,09%</t>
   </si>
   <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
   </si>
   <si>
     <t>60,37%</t>
   </si>
   <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
   </si>
   <si>
     <t>34,62%</t>
   </si>
   <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>56,77%</t>
+  </si>
+  <si>
     <t>40,91%</t>
   </si>
   <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
   </si>
   <si>
     <t>39,63%</t>
   </si>
   <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
   </si>
   <si>
     <t>68,19%</t>
   </si>
   <si>
-    <t>52,42%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
   </si>
   <si>
     <t>72,86%</t>
   </si>
   <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
   </si>
   <si>
     <t>71,36%</t>
   </si>
   <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>77,79%</t>
   </si>
   <si>
     <t>31,81%</t>
   </si>
   <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
   </si>
   <si>
     <t>27,14%</t>
   </si>
   <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
   </si>
   <si>
     <t>28,64%</t>
   </si>
   <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
   </si>
   <si>
     <t>62,08%</t>
   </si>
   <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
   </si>
   <si>
     <t>40,23%</t>
   </si>
   <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
   </si>
   <si>
     <t>37,92%</t>
   </si>
   <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>52,27%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
   </si>
   <si>
     <t>59,77%</t>
   </si>
   <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
   </si>
   <si>
     <t>79,42%</t>
   </si>
   <si>
-    <t>62,46%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
   </si>
   <si>
     <t>71,38%</t>
   </si>
   <si>
-    <t>63,48%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
+    <t>63,26%</t>
   </si>
   <si>
     <t>72,9%</t>
   </si>
   <si>
-    <t>65,69%</t>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
   </si>
   <si>
     <t>20,58%</t>
   </si>
   <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
   </si>
   <si>
     <t>28,62%</t>
   </si>
   <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
+    <t>36,74%</t>
   </si>
   <si>
     <t>27,1%</t>
   </si>
   <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>66,38%</t>
   </si>
   <si>
     <t>62,34%</t>
   </si>
   <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
   </si>
   <si>
     <t>64,69%</t>
   </si>
   <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
   </si>
   <si>
     <t>37,66%</t>
   </si>
   <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>61,28%</t>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
   </si>
   <si>
     <t>35,31%</t>
   </si>
   <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
   </si>
 </sst>
 </file>
@@ -1850,7 +1844,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECEBF853-C61C-40DE-8FC7-5EAC28224BDB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C2A583E-6561-478D-8F0E-E3AC1FA4D4A4}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3363,7 +3357,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43EBB9FF-869C-44C1-8489-757AFE1DFA93}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F81764AF-4360-4A02-907F-5A41EAD71483}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3660,10 +3654,10 @@
         <v>184</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M7" s="7">
         <v>46</v>
@@ -3672,13 +3666,13 @@
         <v>52211</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3693,13 +3687,13 @@
         <v>5024</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -3708,13 +3702,13 @@
         <v>6812</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>154</v>
+        <v>195</v>
       </c>
       <c r="M8" s="7">
         <v>11</v>
@@ -3723,13 +3717,13 @@
         <v>11835</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3797,10 +3791,10 @@
         <v>10589</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>19</v>
@@ -3812,13 +3806,13 @@
         <v>23267</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>34</v>
@@ -3827,13 +3821,13 @@
         <v>33856</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3848,13 +3842,13 @@
         <v>1715</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -3863,13 +3857,13 @@
         <v>3064</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
@@ -3878,13 +3872,13 @@
         <v>4779</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3952,13 +3946,13 @@
         <v>11865</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H13" s="7">
         <v>35</v>
@@ -3967,13 +3961,13 @@
         <v>38123</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M13" s="7">
         <v>46</v>
@@ -3982,13 +3976,13 @@
         <v>49988</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4003,13 +3997,13 @@
         <v>3599</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H14" s="7">
         <v>10</v>
@@ -4018,13 +4012,13 @@
         <v>11901</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M14" s="7">
         <v>14</v>
@@ -4033,13 +4027,13 @@
         <v>15500</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4110,7 +4104,7 @@
         <v>19</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>32</v>
@@ -4122,13 +4116,13 @@
         <v>18047</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M16" s="7">
         <v>23</v>
@@ -4137,13 +4131,13 @@
         <v>24291</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>19</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4161,10 +4155,10 @@
         <v>27</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -4173,13 +4167,13 @@
         <v>3299</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -4188,13 +4182,13 @@
         <v>3299</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>27</v>
+        <v>246</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4262,13 +4256,13 @@
         <v>8255</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="H19" s="7">
         <v>30</v>
@@ -4277,10 +4271,10 @@
         <v>33697</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>19</v>
@@ -4292,13 +4286,13 @@
         <v>41952</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4313,13 +4307,13 @@
         <v>3106</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -4328,13 +4322,13 @@
         <v>1985</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -4343,13 +4337,13 @@
         <v>5091</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4417,13 +4411,13 @@
         <v>16930</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="H22" s="7">
         <v>35</v>
@@ -4432,13 +4426,13 @@
         <v>40530</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="M22" s="7">
         <v>52</v>
@@ -4447,13 +4441,13 @@
         <v>57460</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4468,13 +4462,13 @@
         <v>7027</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="H23" s="7">
         <v>13</v>
@@ -4483,13 +4477,13 @@
         <v>14824</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="M23" s="7">
         <v>20</v>
@@ -4498,13 +4492,13 @@
         <v>21851</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4572,13 +4566,13 @@
         <v>12163</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="H25" s="7">
         <v>42</v>
@@ -4587,13 +4581,13 @@
         <v>51289</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>283</v>
+        <v>93</v>
       </c>
       <c r="M25" s="7">
         <v>53</v>
@@ -4602,13 +4596,13 @@
         <v>63452</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4623,13 +4617,13 @@
         <v>8528</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="H26" s="7">
         <v>15</v>
@@ -4638,13 +4632,13 @@
         <v>18070</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>291</v>
+        <v>102</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="M26" s="7">
         <v>22</v>
@@ -4653,13 +4647,13 @@
         <v>26598</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4727,13 +4721,13 @@
         <v>87474</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H28" s="7">
         <v>234</v>
@@ -4742,13 +4736,13 @@
         <v>265292</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="M28" s="7">
         <v>320</v>
@@ -4757,13 +4751,13 @@
         <v>352766</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4778,13 +4772,13 @@
         <v>34471</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H29" s="7">
         <v>58</v>
@@ -4793,13 +4787,13 @@
         <v>66791</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M29" s="7">
         <v>92</v>
@@ -4808,13 +4802,13 @@
         <v>101262</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4894,7 +4888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC6437E4-E6B2-428C-A21F-875CB41EC310}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ADDB01E-5AC2-4B39-9AD3-051572278CC0}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4911,7 +4905,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5018,10 +5012,10 @@
         <v>7482</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>19</v>
@@ -5033,13 +5027,13 @@
         <v>20644</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="M4" s="7">
         <v>54</v>
@@ -5048,13 +5042,13 @@
         <v>28126</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>322</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5069,13 +5063,13 @@
         <v>861</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -5084,13 +5078,13 @@
         <v>1746</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -5099,10 +5093,10 @@
         <v>2607</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>329</v>
+        <v>246</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>330</v>
@@ -5188,13 +5182,13 @@
         <v>44751</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="M7" s="7">
         <v>80</v>
@@ -5203,13 +5197,13 @@
         <v>58969</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5224,13 +5218,13 @@
         <v>7027</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="H8" s="7">
         <v>9</v>
@@ -5239,13 +5233,13 @@
         <v>5991</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="M8" s="7">
         <v>15</v>
@@ -5254,13 +5248,13 @@
         <v>13018</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5328,13 +5322,13 @@
         <v>14049</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>351</v>
       </c>
       <c r="H10" s="7">
         <v>82</v>
@@ -5343,13 +5337,13 @@
         <v>45738</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="M10" s="7">
         <v>101</v>
@@ -5358,13 +5352,13 @@
         <v>59786</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5379,13 +5373,13 @@
         <v>6434</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="H11" s="7">
         <v>22</v>
@@ -5394,13 +5388,13 @@
         <v>14412</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="M11" s="7">
         <v>31</v>
@@ -5409,13 +5403,13 @@
         <v>20846</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5483,13 +5477,13 @@
         <v>28246</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>369</v>
       </c>
       <c r="H13" s="7">
         <v>148</v>
@@ -5498,13 +5492,13 @@
         <v>74603</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="M13" s="7">
         <v>184</v>
@@ -5513,13 +5507,13 @@
         <v>102848</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5534,13 +5528,13 @@
         <v>2546</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="H14" s="7">
         <v>40</v>
@@ -5549,13 +5543,13 @@
         <v>19990</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="M14" s="7">
         <v>43</v>
@@ -5564,13 +5558,13 @@
         <v>22536</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5638,13 +5632,13 @@
         <v>7041</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H16" s="7">
         <v>62</v>
@@ -5692,10 +5686,10 @@
         <v>392</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>273</v>
+        <v>393</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>342</v>
+        <v>394</v>
       </c>
       <c r="H17" s="7">
         <v>44</v>
@@ -5704,13 +5698,13 @@
         <v>17364</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="M17" s="7">
         <v>51</v>
@@ -5719,13 +5713,13 @@
         <v>21091</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5793,13 +5787,13 @@
         <v>16587</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="H19" s="7">
         <v>84</v>
@@ -5808,13 +5802,13 @@
         <v>37605</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="M19" s="7">
         <v>114</v>
@@ -5823,13 +5817,13 @@
         <v>54192</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5844,13 +5838,13 @@
         <v>7739</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="H20" s="7">
         <v>28</v>
@@ -5859,13 +5853,13 @@
         <v>14011</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="M20" s="7">
         <v>41</v>
@@ -5874,13 +5868,13 @@
         <v>21750</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5948,13 +5942,13 @@
         <v>26296</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H22" s="7">
         <v>119</v>
@@ -5963,13 +5957,13 @@
         <v>79068</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>420</v>
+        <v>232</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M22" s="7">
         <v>147</v>
@@ -5978,13 +5972,13 @@
         <v>105364</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5999,13 +5993,13 @@
         <v>16060</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H23" s="7">
         <v>51</v>
@@ -6014,7 +6008,7 @@
         <v>140482</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>429</v>
+        <v>222</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>430</v>
@@ -6124,7 +6118,7 @@
         <v>439</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>440</v>
+        <v>300</v>
       </c>
       <c r="M25" s="7">
         <v>130</v>
@@ -6133,13 +6127,13 @@
         <v>100418</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6172,10 +6166,10 @@
         <v>446</v>
       </c>
       <c r="K26" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>448</v>
       </c>
       <c r="M26" s="7">
         <v>55</v>
@@ -6184,10 +6178,10 @@
         <v>37328</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>450</v>
@@ -6264,7 +6258,7 @@
         <v>451</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>452</v>
+        <v>55</v>
       </c>
       <c r="H28" s="7">
         <v>711</v>
@@ -6273,13 +6267,13 @@
         <v>407179</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>454</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>455</v>
       </c>
       <c r="M28" s="7">
         <v>884</v>
@@ -6288,13 +6282,13 @@
         <v>541828</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>457</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6312,10 +6306,10 @@
         <v>175</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>459</v>
+        <v>63</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="H29" s="7">
         <v>246</v>
@@ -6324,13 +6318,13 @@
         <v>245952</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>461</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>463</v>
       </c>
       <c r="M29" s="7">
         <v>312</v>
@@ -6339,13 +6333,13 @@
         <v>295717</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>464</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14B28-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B28-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85835A04-3430-4F72-AC7D-4B5EF260EE11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{49D9EC29-EC87-4C6A-B77B-C12CFD8F0637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D4389184-7E64-4710-BDA3-FB1745C7E7DE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FC1A5EF0-F92E-49F3-9288-45589856D334}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="471">
   <si>
     <t>Población cuya artritis le limita en 2012 (Tasa respuesta: 8,61%)</t>
   </si>
@@ -85,16 +85,16 @@
     <t>78,35%</t>
   </si>
   <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
   </si>
   <si>
     <t>97,83%</t>
   </si>
   <si>
-    <t>89,16%</t>
+    <t>91,27%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -103,19 +103,19 @@
     <t>93,39%</t>
   </si>
   <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
   </si>
   <si>
     <t>21,65%</t>
   </si>
   <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
   </si>
   <si>
     <t>2,17%</t>
@@ -124,16 +124,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>10,84%</t>
+    <t>8,73%</t>
   </si>
   <si>
     <t>6,61%</t>
   </si>
   <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
   </si>
   <si>
     <t>100%</t>
@@ -145,55 +145,55 @@
     <t>78,24%</t>
   </si>
   <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
   </si>
   <si>
     <t>90,61%</t>
   </si>
   <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
   </si>
   <si>
     <t>86,59%</t>
   </si>
   <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
   </si>
   <si>
     <t>21,76%</t>
   </si>
   <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
   </si>
   <si>
     <t>9,39%</t>
   </si>
   <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
   </si>
   <si>
     <t>13,41%</t>
   </si>
   <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -202,49 +202,49 @@
     <t>92,77%</t>
   </si>
   <si>
-    <t>76,26%</t>
+    <t>77,53%</t>
   </si>
   <si>
     <t>78,09%</t>
   </si>
   <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
   </si>
   <si>
     <t>82,5%</t>
   </si>
   <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
   </si>
   <si>
     <t>7,23%</t>
   </si>
   <si>
-    <t>23,74%</t>
+    <t>22,47%</t>
   </si>
   <si>
     <t>21,91%</t>
   </si>
   <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
   </si>
   <si>
     <t>17,5%</t>
   </si>
   <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -259,19 +259,19 @@
     <t>85,71%</t>
   </si>
   <si>
-    <t>67,28%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
   </si>
   <si>
     <t>86,7%</t>
   </si>
   <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
+    <t>72,23%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
   </si>
   <si>
     <t>10,23%</t>
@@ -283,19 +283,19 @@
     <t>14,29%</t>
   </si>
   <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
   </si>
   <si>
     <t>13,3%</t>
   </si>
   <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -304,55 +304,55 @@
     <t>83,38%</t>
   </si>
   <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
   </si>
   <si>
     <t>84,16%</t>
   </si>
   <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
   </si>
   <si>
     <t>83,89%</t>
   </si>
   <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
   </si>
   <si>
     <t>16,62%</t>
   </si>
   <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
   </si>
   <si>
     <t>15,84%</t>
   </si>
   <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
   </si>
   <si>
     <t>16,11%</t>
   </si>
   <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -361,55 +361,55 @@
     <t>70,8%</t>
   </si>
   <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
+    <t>49,91%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
   </si>
   <si>
     <t>79,5%</t>
   </si>
   <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
   </si>
   <si>
     <t>77,12%</t>
   </si>
   <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
+    <t>68,51%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
   </si>
   <si>
     <t>29,2%</t>
   </si>
   <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>50,09%</t>
   </si>
   <si>
     <t>20,5%</t>
   </si>
   <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
   </si>
   <si>
     <t>22,88%</t>
   </si>
   <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -418,967 +418,985 @@
     <t>69,66%</t>
   </si>
   <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
+    <t>86,83%</t>
   </si>
   <si>
     <t>83,01%</t>
   </si>
   <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
   </si>
   <si>
     <t>79,64%</t>
   </si>
   <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
   </si>
   <si>
     <t>30,34%</t>
   </si>
   <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
+    <t>13,17%</t>
   </si>
   <si>
     <t>16,99%</t>
   </si>
   <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
   </si>
   <si>
     <t>20,36%</t>
   </si>
   <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
   </si>
   <si>
     <t>79,39%</t>
   </si>
   <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
   </si>
   <si>
     <t>82,87%</t>
   </si>
   <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
   </si>
   <si>
     <t>20,61%</t>
   </si>
   <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
   </si>
   <si>
     <t>17,13%</t>
   </si>
   <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuya artritis le limita en 2015 (Tasa respuesta: 6,27%)</t>
+    <t>Población cuya artritis le limita en 2016 (Tasa respuesta: 6,27%)</t>
   </si>
   <si>
     <t>66,91%</t>
   </si>
   <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
   </si>
   <si>
     <t>73,01%</t>
   </si>
   <si>
-    <t>52,27%</t>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>58,48%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>Población cuya artritis le limita en 2023 (Tasa respuesta: 13,68%)</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
   </si>
   <si>
     <t>88,19%</t>
   </si>
   <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
   </si>
   <si>
     <t>11,81%</t>
   </si>
   <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>66,53%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>56,77%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>77,79%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
   </si>
   <si>
     <t>63,99%</t>
   </si>
   <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
   </si>
   <si>
     <t>79,23%</t>
   </si>
   <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
   </si>
   <si>
     <t>20,77%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>Población cuya artritis le limita en 2023 (Tasa respuesta: 13,68%)</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>66,53%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
   </si>
   <si>
     <t>36,74%</t>
@@ -1844,7 +1862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C2A583E-6561-478D-8F0E-E3AC1FA4D4A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8D3BA03-8138-4F7D-A032-D994BB4ADF8C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3038,10 +3056,10 @@
         <v>125</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H25" s="7">
         <v>55</v>
@@ -3050,13 +3068,13 @@
         <v>60809</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M25" s="7">
         <v>70</v>
@@ -3065,13 +3083,13 @@
         <v>78032</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3086,13 +3104,13 @@
         <v>7502</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>135</v>
-      </c>
       <c r="G26" s="7" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="H26" s="7">
         <v>11</v>
@@ -3101,13 +3119,13 @@
         <v>12442</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M26" s="7">
         <v>18</v>
@@ -3116,13 +3134,13 @@
         <v>19944</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3190,13 +3208,13 @@
         <v>138345</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H28" s="7">
         <v>341</v>
@@ -3205,13 +3223,13 @@
         <v>368793</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M28" s="7">
         <v>467</v>
@@ -3220,13 +3238,13 @@
         <v>507139</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3241,13 +3259,13 @@
         <v>35921</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H29" s="7">
         <v>61</v>
@@ -3256,13 +3274,13 @@
         <v>68943</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M29" s="7">
         <v>93</v>
@@ -3271,13 +3289,13 @@
         <v>104863</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3333,7 +3351,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -3357,7 +3375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F81764AF-4360-4A02-907F-5A41EAD71483}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11EB6821-AF07-4462-81DE-E135DE791F0D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3374,7 +3392,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3481,13 +3499,13 @@
         <v>11064</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H4" s="7">
         <v>17</v>
@@ -3496,13 +3514,13 @@
         <v>18491</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="M4" s="7">
         <v>27</v>
@@ -3511,13 +3529,13 @@
         <v>29555</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3532,13 +3550,13 @@
         <v>5473</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -3547,13 +3565,13 @@
         <v>6836</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -3562,13 +3580,13 @@
         <v>12309</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3636,13 +3654,13 @@
         <v>10363</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H7" s="7">
         <v>36</v>
@@ -3651,13 +3669,13 @@
         <v>41848</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="M7" s="7">
         <v>46</v>
@@ -3666,13 +3684,13 @@
         <v>52211</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3687,13 +3705,13 @@
         <v>5024</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -3702,13 +3720,13 @@
         <v>6812</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="M8" s="7">
         <v>11</v>
@@ -3717,13 +3735,13 @@
         <v>11835</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3791,10 +3809,10 @@
         <v>10589</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>19</v>
@@ -3806,13 +3824,13 @@
         <v>23267</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="M10" s="7">
         <v>34</v>
@@ -3821,13 +3839,13 @@
         <v>33856</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3842,13 +3860,13 @@
         <v>1715</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -3857,13 +3875,13 @@
         <v>3064</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
@@ -3872,13 +3890,13 @@
         <v>4779</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3946,13 +3964,13 @@
         <v>11865</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H13" s="7">
         <v>35</v>
@@ -3961,13 +3979,13 @@
         <v>38123</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="M13" s="7">
         <v>46</v>
@@ -3976,13 +3994,13 @@
         <v>49988</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3997,13 +4015,13 @@
         <v>3599</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H14" s="7">
         <v>10</v>
@@ -4012,13 +4030,13 @@
         <v>11901</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="M14" s="7">
         <v>14</v>
@@ -4027,13 +4045,13 @@
         <v>15500</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4104,7 +4122,7 @@
         <v>19</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>32</v>
@@ -4116,13 +4134,13 @@
         <v>18047</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="M16" s="7">
         <v>23</v>
@@ -4131,13 +4149,13 @@
         <v>24291</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4155,10 +4173,10 @@
         <v>27</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -4167,13 +4185,13 @@
         <v>3299</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -4182,13 +4200,13 @@
         <v>3299</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4256,13 +4274,13 @@
         <v>8255</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H19" s="7">
         <v>30</v>
@@ -4271,10 +4289,10 @@
         <v>33697</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>19</v>
@@ -4286,13 +4304,13 @@
         <v>41952</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4307,13 +4325,13 @@
         <v>3106</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -4322,13 +4340,13 @@
         <v>1985</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -4337,13 +4355,13 @@
         <v>5091</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4411,13 +4429,13 @@
         <v>16930</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H22" s="7">
         <v>35</v>
@@ -4426,13 +4444,13 @@
         <v>40530</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="M22" s="7">
         <v>52</v>
@@ -4441,13 +4459,13 @@
         <v>57460</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4462,13 +4480,13 @@
         <v>7027</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H23" s="7">
         <v>13</v>
@@ -4477,13 +4495,13 @@
         <v>14824</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="M23" s="7">
         <v>20</v>
@@ -4492,13 +4510,13 @@
         <v>21851</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4566,13 +4584,13 @@
         <v>12163</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H25" s="7">
         <v>42</v>
@@ -4581,13 +4599,13 @@
         <v>51289</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>93</v>
+        <v>283</v>
       </c>
       <c r="M25" s="7">
         <v>53</v>
@@ -4596,13 +4614,13 @@
         <v>63452</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4617,13 +4635,13 @@
         <v>8528</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H26" s="7">
         <v>15</v>
@@ -4632,13 +4650,13 @@
         <v>18070</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>102</v>
+        <v>291</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="M26" s="7">
         <v>22</v>
@@ -4647,13 +4665,13 @@
         <v>26598</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4721,13 +4739,13 @@
         <v>87474</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="H28" s="7">
         <v>234</v>
@@ -4736,13 +4754,13 @@
         <v>265292</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="M28" s="7">
         <v>320</v>
@@ -4751,13 +4769,13 @@
         <v>352766</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4772,13 +4790,13 @@
         <v>34471</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="H29" s="7">
         <v>58</v>
@@ -4787,13 +4805,13 @@
         <v>66791</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="M29" s="7">
         <v>92</v>
@@ -4802,13 +4820,13 @@
         <v>101262</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4864,7 +4882,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -4888,7 +4906,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ADDB01E-5AC2-4B39-9AD3-051572278CC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8457992E-4910-4325-B3EB-FBC729539244}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4905,7 +4923,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5012,10 +5030,10 @@
         <v>7482</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>19</v>
@@ -5027,13 +5045,13 @@
         <v>20644</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="M4" s="7">
         <v>54</v>
@@ -5042,13 +5060,13 @@
         <v>28126</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5063,13 +5081,13 @@
         <v>861</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -5078,13 +5096,13 @@
         <v>1746</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -5093,10 +5111,10 @@
         <v>2607</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>330</v>
@@ -5182,13 +5200,13 @@
         <v>44751</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>168</v>
+        <v>334</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M7" s="7">
         <v>80</v>
@@ -5197,13 +5215,13 @@
         <v>58969</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5218,13 +5236,13 @@
         <v>7027</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H8" s="7">
         <v>9</v>
@@ -5233,13 +5251,13 @@
         <v>5991</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>176</v>
+        <v>343</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="M8" s="7">
         <v>15</v>
@@ -5248,13 +5266,13 @@
         <v>13018</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5322,13 +5340,13 @@
         <v>14049</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H10" s="7">
         <v>82</v>
@@ -5337,13 +5355,13 @@
         <v>45738</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="M10" s="7">
         <v>101</v>
@@ -5352,13 +5370,13 @@
         <v>59786</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5373,13 +5391,13 @@
         <v>6434</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="H11" s="7">
         <v>22</v>
@@ -5388,13 +5406,13 @@
         <v>14412</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="M11" s="7">
         <v>31</v>
@@ -5403,13 +5421,13 @@
         <v>20846</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5477,13 +5495,13 @@
         <v>28246</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="H13" s="7">
         <v>148</v>
@@ -5492,13 +5510,13 @@
         <v>74603</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="M13" s="7">
         <v>184</v>
@@ -5507,13 +5525,13 @@
         <v>102848</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5528,13 +5546,13 @@
         <v>2546</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="H14" s="7">
         <v>40</v>
@@ -5543,13 +5561,13 @@
         <v>19990</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M14" s="7">
         <v>43</v>
@@ -5558,13 +5576,13 @@
         <v>22536</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5632,13 +5650,13 @@
         <v>7041</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="H16" s="7">
         <v>62</v>
@@ -5647,13 +5665,13 @@
         <v>25083</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="M16" s="7">
         <v>74</v>
@@ -5662,13 +5680,13 @@
         <v>32124</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5683,13 +5701,13 @@
         <v>3727</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="H17" s="7">
         <v>44</v>
@@ -5698,13 +5716,13 @@
         <v>17364</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="M17" s="7">
         <v>51</v>
@@ -5713,13 +5731,13 @@
         <v>21091</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5787,13 +5805,13 @@
         <v>16587</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="H19" s="7">
         <v>84</v>
@@ -5802,13 +5820,13 @@
         <v>37605</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="M19" s="7">
         <v>114</v>
@@ -5817,13 +5835,13 @@
         <v>54192</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5838,13 +5856,13 @@
         <v>7739</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="H20" s="7">
         <v>28</v>
@@ -5853,13 +5871,13 @@
         <v>14011</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="M20" s="7">
         <v>41</v>
@@ -5868,13 +5886,13 @@
         <v>21750</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5942,13 +5960,13 @@
         <v>26296</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="H22" s="7">
         <v>119</v>
@@ -5957,13 +5975,13 @@
         <v>79068</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>232</v>
+        <v>424</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="M22" s="7">
         <v>147</v>
@@ -5972,13 +5990,13 @@
         <v>105364</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5993,13 +6011,13 @@
         <v>16060</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="H23" s="7">
         <v>51</v>
@@ -6008,13 +6026,13 @@
         <v>140482</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>222</v>
+        <v>433</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="M23" s="7">
         <v>70</v>
@@ -6023,13 +6041,13 @@
         <v>156542</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6097,13 +6115,13 @@
         <v>20731</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="H25" s="7">
         <v>106</v>
@@ -6112,13 +6130,13 @@
         <v>79686</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>300</v>
+        <v>444</v>
       </c>
       <c r="M25" s="7">
         <v>130</v>
@@ -6127,13 +6145,13 @@
         <v>100418</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6148,13 +6166,13 @@
         <v>5371</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="H26" s="7">
         <v>47</v>
@@ -6163,13 +6181,13 @@
         <v>31957</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>308</v>
+        <v>452</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="M26" s="7">
         <v>55</v>
@@ -6178,13 +6196,13 @@
         <v>37328</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6252,10 +6270,10 @@
         <v>134649</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>55</v>
@@ -6267,13 +6285,13 @@
         <v>407179</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="M28" s="7">
         <v>884</v>
@@ -6282,13 +6300,13 @@
         <v>541828</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6303,13 +6321,13 @@
         <v>49765</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>63</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="H29" s="7">
         <v>246</v>
@@ -6318,13 +6336,13 @@
         <v>245952</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="M29" s="7">
         <v>312</v>
@@ -6333,13 +6351,13 @@
         <v>295717</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6395,7 +6413,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
